--- a/txt generated files/planillas que se necesitan para generar el txt/PACIENTES JUNTOS (FECHA INGRESO).xlsx
+++ b/txt generated files/planillas que se necesitan para generar el txt/PACIENTES JUNTOS (FECHA INGRESO).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\OneDrive\Documentos\txtgenerator\txtgenerator\txt generated files\planillas que se necesitan para generar el txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE50E58-DBDF-47B5-80E2-FF252A323454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57602946-41AE-4CA0-B16D-72F03CB164DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9377a8604e64d0bbfaa8fa3c4eb5287" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/txt generated files/planillas que se necesitan para generar el txt/PACIENTES JUNTOS (FECHA INGRESO).xlsx
+++ b/txt generated files/planillas que se necesitan para generar el txt/PACIENTES JUNTOS (FECHA INGRESO).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\OneDrive\Documentos\txtgenerator\txtgenerator\txt generated files\planillas que se necesitan para generar el txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57602946-41AE-4CA0-B16D-72F03CB164DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02C8209-7D3D-4475-8FFF-B74FEB19F0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9377a8604e64d0bbfaa8fa3c4eb5287" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
